--- a/public/excel/FichaDatosPersonales.xlsx
+++ b/public/excel/FichaDatosPersonales.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\OICE_16_974FA576_32C1D314_16E\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adonay Calix\OneDrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{958D58DE-0814-4F4E-BFF7-AA28524834E2}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D74AD3B-1BA7-4FF1-9F38-8113A5CAE866}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32760" yWindow="32760" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" calcMode="manual"/>
+  <calcPr calcId="179020" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -325,10 +325,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,7 +345,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -356,16 +359,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -376,9 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -776,8 +782,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AV51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
-      <selection activeCell="C47" sqref="B47:M50"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}">
+      <selection activeCell="F6" sqref="F6:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -793,9 +799,12 @@
     <col min="12" max="12" width="3.140625" customWidth="1"/>
     <col min="13" max="13" width="2.7109375" customWidth="1"/>
     <col min="14" max="14" width="2.28515625" customWidth="1"/>
-    <col min="15" max="19" width="2.7109375" customWidth="1"/>
+    <col min="15" max="16" width="2.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3" customWidth="1"/>
+    <col min="18" max="19" width="2.7109375" customWidth="1"/>
     <col min="20" max="20" width="3.140625" customWidth="1"/>
-    <col min="21" max="33" width="2.7109375" customWidth="1"/>
+    <col min="21" max="32" width="2.7109375" customWidth="1"/>
+    <col min="33" max="33" width="3" customWidth="1"/>
     <col min="34" max="34" width="6.5703125" customWidth="1"/>
     <col min="35" max="35" width="1.42578125" customWidth="1"/>
     <col min="36" max="36" width="3.140625" customWidth="1"/>
@@ -814,297 +823,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:48">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
-      <c r="AB1" s="11"/>
-      <c r="AC1" s="11"/>
-      <c r="AD1" s="11"/>
-      <c r="AE1" s="11"/>
-      <c r="AF1" s="11"/>
-      <c r="AG1" s="11"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
     </row>
     <row r="2" spans="2:48">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
     </row>
     <row r="3" spans="2:48">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="10"/>
-      <c r="AB3" s="10"/>
-      <c r="AC3" s="10"/>
-      <c r="AD3" s="10"/>
-      <c r="AE3" s="10"/>
-      <c r="AF3" s="10"/>
-      <c r="AG3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9"/>
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
     </row>
     <row r="5" spans="2:48">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
-      <c r="AB5" s="10"/>
-      <c r="AC5" s="10"/>
-      <c r="AD5" s="10"/>
-      <c r="AE5" s="10"/>
-      <c r="AF5" s="10"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="7"/>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
     </row>
     <row r="6" spans="2:48" ht="15" customHeight="1">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="14"/>
-      <c r="AE6" s="14"/>
-      <c r="AF6" s="14"/>
-      <c r="AG6" s="14"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13"/>
     </row>
     <row r="7" spans="2:48" ht="4.5" customHeight="1">
       <c r="D7" s="2"/>
+      <c r="AG7" s="8"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="20"/>
-      <c r="AM7" s="20"/>
-      <c r="AN7" s="20"/>
-      <c r="AO7" s="20"/>
-      <c r="AR7" s="20"/>
-      <c r="AS7" s="20"/>
-      <c r="AT7" s="20"/>
-      <c r="AU7" s="20"/>
-      <c r="AV7" s="20"/>
+      <c r="AL7" s="23"/>
+      <c r="AM7" s="23"/>
+      <c r="AN7" s="23"/>
+      <c r="AO7" s="23"/>
+      <c r="AR7" s="23"/>
+      <c r="AS7" s="23"/>
+      <c r="AT7" s="23"/>
+      <c r="AU7" s="23"/>
+      <c r="AV7" s="23"/>
     </row>
     <row r="8" spans="2:48">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="24"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="23"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="25"/>
-      <c r="AH8" s="7"/>
-      <c r="AI8" s="7"/>
-      <c r="AJ8" s="7"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="26"/>
+      <c r="AH8" s="6"/>
+      <c r="AI8" s="6"/>
+      <c r="AJ8" s="6"/>
       <c r="AK8" s="3"/>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10"/>
-      <c r="AN8" s="10"/>
-      <c r="AO8" s="10"/>
-      <c r="AQ8" s="7"/>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10"/>
-      <c r="AT8" s="10"/>
-      <c r="AU8" s="10"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="9"/>
+      <c r="AS8" s="9"/>
+      <c r="AT8" s="9"/>
+      <c r="AU8" s="9"/>
     </row>
     <row r="9" spans="2:48" ht="13.5" customHeight="1">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="K9" s="10" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="K9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="7"/>
-      <c r="T9" s="10" t="s">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="6"/>
+      <c r="T9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="10" t="s">
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="10"/>
-      <c r="AE9" s="10"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
     </row>
     <row r="10" spans="2:48" ht="12" customHeight="1">
       <c r="B10" s="5"/>
@@ -1139,346 +1149,346 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
-      <c r="AL10" s="15"/>
-      <c r="AM10" s="26"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="12"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="20"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="11"/>
     </row>
     <row r="11" spans="2:48">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="H11" s="12" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="H11" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="6"/>
-      <c r="N11" s="12" t="s">
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="7"/>
+      <c r="N11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="R11" s="6"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="12" t="s">
+      <c r="U11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="Y11" s="6"/>
+      <c r="V11" s="11"/>
+      <c r="W11" s="11"/>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="5"/>
-      <c r="AA11" s="12" t="s">
+      <c r="AA11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="12"/>
-      <c r="AC11" s="12"/>
-      <c r="AD11" s="12"/>
-      <c r="AF11" s="6"/>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AF11" s="7"/>
     </row>
     <row r="12" spans="2:48" ht="6.75" customHeight="1"/>
     <row r="13" spans="2:48">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="N13" s="12" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="N13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13"/>
-      <c r="Y13" s="13"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
       <c r="Z13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
       <c r="AD13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
+      <c r="AE13" s="12"/>
+      <c r="AF13" s="12"/>
+      <c r="AG13" s="12"/>
     </row>
     <row r="14" spans="2:48">
-      <c r="W14" s="12" t="s">
+      <c r="W14" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="X14" s="12"/>
+      <c r="X14" s="11"/>
       <c r="Y14" s="5"/>
-      <c r="AA14" s="12" t="s">
+      <c r="AA14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="AB14" s="12"/>
-      <c r="AE14" s="12" t="s">
+      <c r="AB14" s="11"/>
+      <c r="AE14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AF14" s="12"/>
+      <c r="AF14" s="11"/>
     </row>
     <row r="15" spans="2:48" ht="6.75" customHeight="1"/>
     <row r="16" spans="2:48">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-      <c r="X16" s="13"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="13"/>
-      <c r="AA16" s="13"/>
-      <c r="AB16" s="13"/>
-      <c r="AC16" s="13"/>
-      <c r="AD16" s="13"/>
-      <c r="AE16" s="13"/>
-      <c r="AF16" s="13"/>
-      <c r="AG16" s="13"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="18"/>
+      <c r="AG16" s="18"/>
     </row>
     <row r="17" spans="2:33" ht="15.75" customHeight="1">
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="22" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
-      <c r="U17" s="22"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-      <c r="X17" s="17"/>
-      <c r="Y17" s="17"/>
-      <c r="Z17" s="17"/>
-      <c r="AA17" s="17"/>
-      <c r="AB17" s="17"/>
-      <c r="AC17" s="17"/>
-      <c r="AD17" s="17"/>
-      <c r="AE17" s="17"/>
-      <c r="AF17" s="17"/>
-      <c r="AG17" s="17"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="22"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="12" t="s">
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="12" t="s">
+      <c r="G18" s="11"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-      <c r="X18" s="13"/>
-      <c r="Y18" s="12" t="s">
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z18" s="12"/>
-      <c r="AA18" s="12"/>
-      <c r="AB18" s="13"/>
-      <c r="AC18" s="13"/>
-      <c r="AD18" s="13"/>
-      <c r="AE18" s="13"/>
-      <c r="AF18" s="13"/>
-      <c r="AG18" s="13"/>
+      <c r="Z18" s="11"/>
+      <c r="AA18" s="11"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="18"/>
+      <c r="AG18" s="18"/>
     </row>
     <row r="19" spans="2:33" ht="7.5" customHeight="1">
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="13"/>
-      <c r="AB20" s="13"/>
-      <c r="AC20" s="13"/>
-      <c r="AD20" s="13"/>
-      <c r="AE20" s="13"/>
-      <c r="AF20" s="13"/>
-      <c r="AG20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="18"/>
+      <c r="AG20" s="18"/>
     </row>
     <row r="21" spans="2:33" ht="5.25" customHeight="1"/>
     <row r="22" spans="2:33">
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="12" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="12" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="13"/>
-      <c r="Y22" s="13"/>
-      <c r="Z22" s="13"/>
-      <c r="AA22" s="13"/>
-      <c r="AB22" s="13"/>
-      <c r="AC22" s="13"/>
-      <c r="AD22" s="13"/>
-      <c r="AE22" s="13"/>
-      <c r="AF22" s="13"/>
-      <c r="AG22" s="13"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="18"/>
+      <c r="AG22" s="18"/>
     </row>
     <row r="23" spans="2:33">
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="12" t="s">
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="13"/>
-      <c r="AA23" s="13"/>
-      <c r="AB23" s="13"/>
-      <c r="AC23" s="13"/>
-      <c r="AD23" s="13"/>
-      <c r="AE23" s="13"/>
-      <c r="AF23" s="13"/>
-      <c r="AG23" s="13"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="18"/>
+      <c r="AG23" s="18"/>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="15"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="19"/>
       <c r="E24" s="19"/>
       <c r="F24" s="19"/>
@@ -1493,12 +1503,12 @@
       <c r="O24" s="19"/>
       <c r="P24" s="19"/>
       <c r="Q24" s="19"/>
-      <c r="R24" s="12" t="s">
+      <c r="R24" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
+      <c r="S24" s="11"/>
+      <c r="T24" s="11"/>
+      <c r="U24" s="11"/>
       <c r="V24" s="19"/>
       <c r="W24" s="19"/>
       <c r="X24" s="19"/>
@@ -1513,52 +1523,52 @@
       <c r="AG24" s="19"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
-      <c r="AA25" s="13"/>
-      <c r="AB25" s="13"/>
-      <c r="AC25" s="13"/>
-      <c r="AD25" s="13"/>
-      <c r="AE25" s="13"/>
-      <c r="AF25" s="13"/>
-      <c r="AG25" s="13"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="18"/>
+      <c r="AG25" s="18"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
       <c r="L26" s="19"/>
@@ -1585,132 +1595,132 @@
       <c r="AG26" s="19"/>
     </row>
     <row r="27" spans="2:33">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
-      <c r="AB27" s="21"/>
-      <c r="AC27" s="21"/>
-      <c r="AD27" s="21"/>
-      <c r="AE27" s="21"/>
-      <c r="AF27" s="21"/>
-      <c r="AG27" s="21"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
     </row>
     <row r="28" spans="2:33" ht="14.25" customHeight="1">
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
-      <c r="AC28" s="13"/>
-      <c r="AD28" s="13"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
+      <c r="AG28" s="18"/>
     </row>
     <row r="29" spans="2:33" ht="14.25" customHeight="1">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
-      <c r="AA29" s="13"/>
-      <c r="AB29" s="13"/>
-      <c r="AC29" s="13"/>
-      <c r="AD29" s="13"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
     </row>
     <row r="30" spans="2:33" ht="14.25" customHeight="1">
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="18"/>
+      <c r="Q30" s="18"/>
       <c r="R30" s="20"/>
       <c r="S30" s="20"/>
       <c r="T30" s="20"/>
@@ -1763,221 +1773,221 @@
       <c r="AG31" s="2"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
       <c r="I32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J32" s="6"/>
+      <c r="J32" s="7"/>
       <c r="L32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M32" s="6"/>
+      <c r="M32" s="7"/>
       <c r="N32" s="5"/>
-      <c r="O32" s="12" t="s">
+      <c r="O32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="W32" s="12" t="s">
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="W32" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="8"/>
-      <c r="AD32" s="12" t="s">
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AD32" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AE32" s="12"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
+      <c r="AE32" s="11"/>
+      <c r="AF32" s="18"/>
+      <c r="AG32" s="18"/>
     </row>
     <row r="33" spans="2:33">
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
-      <c r="AA33" s="13"/>
-      <c r="AB33" s="13"/>
-      <c r="AC33" s="13"/>
-      <c r="AD33" s="13"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18"/>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18"/>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
-      <c r="X34" s="13"/>
-      <c r="Y34" s="13"/>
-      <c r="Z34" s="13"/>
-      <c r="AA34" s="13"/>
-      <c r="AB34" s="13"/>
-      <c r="AC34" s="13"/>
-      <c r="AD34" s="13"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="18"/>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="18"/>
+      <c r="V34" s="18"/>
+      <c r="W34" s="18"/>
+      <c r="X34" s="18"/>
+      <c r="Y34" s="18"/>
+      <c r="Z34" s="18"/>
+      <c r="AA34" s="18"/>
+      <c r="AB34" s="18"/>
+      <c r="AC34" s="18"/>
+      <c r="AD34" s="18"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="18"/>
+      <c r="AG34" s="18"/>
     </row>
     <row r="35" spans="2:33">
       <c r="B35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
-      <c r="AA35" s="13"/>
-      <c r="AB35" s="13"/>
-      <c r="AC35" s="13"/>
-      <c r="AD35" s="13"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18"/>
+      <c r="R35" s="18"/>
+      <c r="S35" s="18"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18"/>
+      <c r="V35" s="18"/>
+      <c r="W35" s="18"/>
+      <c r="X35" s="18"/>
+      <c r="Y35" s="18"/>
+      <c r="Z35" s="18"/>
+      <c r="AA35" s="18"/>
+      <c r="AB35" s="18"/>
+      <c r="AC35" s="18"/>
+      <c r="AD35" s="18"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="18"/>
+      <c r="AG35" s="18"/>
     </row>
     <row r="36" spans="2:33">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="13"/>
-      <c r="AB36" s="13"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="13"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="18"/>
+      <c r="Q36" s="18"/>
+      <c r="R36" s="18"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="18"/>
+      <c r="V36" s="18"/>
+      <c r="W36" s="18"/>
+      <c r="X36" s="18"/>
+      <c r="Y36" s="18"/>
+      <c r="Z36" s="18"/>
+      <c r="AA36" s="18"/>
+      <c r="AB36" s="18"/>
+      <c r="AC36" s="18"/>
+      <c r="AD36" s="18"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="18"/>
+      <c r="AG36" s="18"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-      <c r="U37" s="15" t="s">
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="18"/>
+      <c r="S37" s="18"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="15"/>
-      <c r="Y37" s="15"/>
-      <c r="Z37" s="15"/>
+      <c r="V37" s="14"/>
+      <c r="W37" s="14"/>
+      <c r="X37" s="14"/>
+      <c r="Y37" s="14"/>
+      <c r="Z37" s="14"/>
       <c r="AA37" s="19"/>
       <c r="AB37" s="19"/>
       <c r="AC37" s="19"/>
@@ -1987,310 +1997,313 @@
       <c r="AG37" s="19"/>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="17"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="16" t="s">
+      <c r="C39" s="16"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="16"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="O39" s="17"/>
-      <c r="P39" s="17"/>
-      <c r="Q39" s="17"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="17"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="16" t="s">
+      <c r="O39" s="16"/>
+      <c r="P39" s="16"/>
+      <c r="Q39" s="16"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
+      <c r="W39" s="16"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="Z39" s="17"/>
-      <c r="AA39" s="17"/>
-      <c r="AB39" s="17"/>
-      <c r="AC39" s="17"/>
-      <c r="AD39" s="17"/>
-      <c r="AE39" s="17"/>
-      <c r="AF39" s="17"/>
-      <c r="AG39" s="18"/>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
+      <c r="AE39" s="16"/>
+      <c r="AF39" s="16"/>
+      <c r="AG39" s="17"/>
     </row>
     <row r="40" spans="2:33">
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
-      <c r="Y40" s="14"/>
-      <c r="Z40" s="14"/>
-      <c r="AA40" s="14"/>
-      <c r="AB40" s="14"/>
-      <c r="AC40" s="14"/>
-      <c r="AD40" s="14"/>
-      <c r="AE40" s="14"/>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="13"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+      <c r="X40" s="13"/>
+      <c r="Y40" s="13"/>
+      <c r="Z40" s="13"/>
+      <c r="AA40" s="13"/>
+      <c r="AB40" s="13"/>
+      <c r="AC40" s="13"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="13"/>
+      <c r="AF40" s="13"/>
+      <c r="AG40" s="13"/>
     </row>
     <row r="41" spans="2:33">
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="14"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="14"/>
-      <c r="AA41" s="14"/>
-      <c r="AB41" s="14"/>
-      <c r="AC41" s="14"/>
-      <c r="AD41" s="14"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+      <c r="X41" s="13"/>
+      <c r="Y41" s="13"/>
+      <c r="Z41" s="13"/>
+      <c r="AA41" s="13"/>
+      <c r="AB41" s="13"/>
+      <c r="AC41" s="13"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="13"/>
+      <c r="AF41" s="13"/>
+      <c r="AG41" s="13"/>
     </row>
     <row r="42" spans="2:33">
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="14"/>
-      <c r="Y42" s="14"/>
-      <c r="Z42" s="14"/>
-      <c r="AA42" s="14"/>
-      <c r="AB42" s="14"/>
-      <c r="AC42" s="14"/>
-      <c r="AD42" s="14"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+      <c r="X42" s="13"/>
+      <c r="Y42" s="13"/>
+      <c r="Z42" s="13"/>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13"/>
+      <c r="AC42" s="13"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="13"/>
+      <c r="AF42" s="13"/>
+      <c r="AG42" s="13"/>
     </row>
     <row r="43" spans="2:33">
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="14"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="14"/>
-      <c r="AA43" s="14"/>
-      <c r="AB43" s="14"/>
-      <c r="AC43" s="14"/>
-      <c r="AD43" s="14"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+      <c r="X43" s="13"/>
+      <c r="Y43" s="13"/>
+      <c r="Z43" s="13"/>
+      <c r="AA43" s="13"/>
+      <c r="AB43" s="13"/>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13"/>
+      <c r="AF43" s="13"/>
+      <c r="AG43" s="13"/>
     </row>
     <row r="44" spans="2:33">
-      <c r="B44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+      <c r="X44" s="13"/>
+      <c r="Y44" s="13"/>
+      <c r="Z44" s="13"/>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13"/>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13"/>
+      <c r="AF44" s="13"/>
+      <c r="AG44" s="13"/>
     </row>
     <row r="47" spans="2:33">
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
+      <c r="B47" s="23"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="23"/>
+      <c r="J47" s="23"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
     </row>
     <row r="48" spans="2:33">
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
     </row>
     <row r="49" spans="2:30">
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="23"/>
     </row>
     <row r="50" spans="2:30">
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
-      <c r="X50" s="13"/>
-      <c r="Y50" s="13"/>
-      <c r="Z50" s="13"/>
-      <c r="AA50" s="13"/>
-      <c r="AB50" s="13"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="12"/>
+      <c r="Y50" s="12"/>
+      <c r="Z50" s="12"/>
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
     </row>
     <row r="51" spans="2:30">
-      <c r="D51" s="12" t="s">
+      <c r="D51" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12"/>
-      <c r="X51" s="12" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="X51" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
+      <c r="Y51" s="11"/>
+      <c r="Z51" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="114">
     <mergeCell ref="B47:M50"/>
+    <mergeCell ref="R32:U32"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AF32:AG32"/>
     <mergeCell ref="AR7:AV7"/>
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="AA9:AG9"/>
@@ -2298,7 +2311,6 @@
     <mergeCell ref="K9:Q9"/>
     <mergeCell ref="J8:R8"/>
     <mergeCell ref="T8:Y8"/>
-    <mergeCell ref="C9:H9"/>
     <mergeCell ref="AL7:AO7"/>
     <mergeCell ref="AA8:AG8"/>
     <mergeCell ref="B11:F11"/>
@@ -2355,11 +2367,6 @@
     <mergeCell ref="V24:AG24"/>
     <mergeCell ref="B27:N27"/>
     <mergeCell ref="O27:AG27"/>
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="N34:AG34"/>
-    <mergeCell ref="C35:AG35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="L36:AG36"/>
     <mergeCell ref="B29:H29"/>
     <mergeCell ref="I29:AG29"/>
     <mergeCell ref="B30:J30"/>
@@ -2370,7 +2377,6 @@
     <mergeCell ref="W32:Y32"/>
     <mergeCell ref="AD32:AE32"/>
     <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B38:F38"/>
     <mergeCell ref="B39:M39"/>
     <mergeCell ref="N39:X39"/>
     <mergeCell ref="Y39:AG39"/>
@@ -2379,6 +2385,11 @@
     <mergeCell ref="J37:T37"/>
     <mergeCell ref="U37:Z37"/>
     <mergeCell ref="AA37:AG37"/>
+    <mergeCell ref="B34:M34"/>
+    <mergeCell ref="N34:AG34"/>
+    <mergeCell ref="C35:AG35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="L36:AG36"/>
     <mergeCell ref="B5:AG5"/>
     <mergeCell ref="B3:AG3"/>
     <mergeCell ref="B2:AG2"/>
@@ -2402,6 +2413,7 @@
     <mergeCell ref="N44:X44"/>
     <mergeCell ref="N43:X43"/>
     <mergeCell ref="N42:X42"/>
+    <mergeCell ref="B38:F38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.57291666666666663" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
